--- a/Testdata/TC11_CreateOrderbyCoffeeRoaster.xlsx
+++ b/Testdata/TC11_CreateOrderbyCoffeeRoaster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestCoffee496\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2913AEAC-157B-4FCE-A6C5-A97EF3702D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F69578-D828-4FE1-9590-212744EC73F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="151">
   <si>
     <t>TDID</t>
   </si>
@@ -324,7 +324,172 @@
     <t>mashed</t>
   </si>
   <si>
-    <t>c005</t>
+    <t>crush</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>crushCoffee</t>
+  </si>
+  <si>
+    <t>PackSip</t>
+  </si>
+  <si>
+    <t>option5</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Suggestion</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกบริการสีกาแฟกะลาและบริการคั่วกาแฟ</t>
+  </si>
+  <si>
+    <t>c004</t>
+  </si>
+  <si>
+    <t>option3</t>
+  </si>
+  <si>
+    <t>option6</t>
+  </si>
+  <si>
+    <t>option4</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Mic Shell Dlg"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการบดกาแฟ 15 บาท</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>กรุณากรอกน้ำหนักกาแฟขั้นต่ำ 25 กิโลกรัม</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>กรุณากรอกน้ำหนักกาแฟตั้งแต่ 25-1000 กิโลกรัม</t>
+  </si>
+  <si>
+    <t>กรุณากรอกน้ำหนักกาแฟให้ถูกต้อง</t>
+  </si>
+  <si>
+    <t>กรุณากรอกน้ำหนักของกาแฟ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท </t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการบดกาแฟ 15 บาท + บริการแพ็คถุงฟอยล์(ไม่มีวาล์ว) ขนาด 500 กรัม ราคา 30 บาท</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการบดกาแฟ 15 บาท + บริการแพ็คถุงฟอยล์(ไม่มีวาล์ว) ขนาด 1000 กรัม ราคา 35 บาท</t>
+  </si>
+  <si>
+    <t>option7</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการบดกาแฟ 15 บาท + บริการแพ็คถุงฟอยล์(มีวาล์ว) ขนาด 500 กรัม ราคา 40 บาท</t>
+  </si>
+  <si>
+    <t>option8</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการบดกาแฟ 15 บาท + บริการแพ็คถุงฟอยล์(มีวาล์ว) ขนาด 1000 กรัม ราคา 45 บาท</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการแพ็คถุงฟอยล์(ไม่มีวาล์ว) ขนาด 500 กรัม ราคา 30 บาท</t>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการแพ็คถุงฟอยล์(ไม่มีวาล์ว) ขนาด 1000 กรัม ราคา 35 บาท</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการแพ็คถุงฟอยล์(มีวาล์ว) ขนาด 500 กรัม ราคา 40 บาท</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>น้ำหนักกาแฟ 25 - 50 กิโลกรัม (ขั้นต่ำ 25 กิโลกรัม) คิดเรทราคา 20 บาท + บริการแพ็คถุงฟอยล์(มีวาล์ว) ขนาด 1000 กรัม ราคา 45 บาท</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>ควรแจ้งเตือนผู้ใช้ว่า"กรุณาเลือกบริการสีกาแฟกะลาและบริการคั่วกาแฟ"</t>
+  </si>
+  <si>
+    <t>2280</t>
+  </si>
+  <si>
+    <t>ควรแจ้งเตือนผู้ใช้ว่า"กรุณากรอกน้ำหนักกาแฟขั้นต่ำ 25 กิโลกรัม"</t>
+  </si>
+  <si>
+    <t>80080</t>
+  </si>
+  <si>
+    <t>ควรแจ้งเตือนผู้ใช้ว่า"กรุณากรอกน้ำหนักกาแฟตั้งแต่ 25-1000 กิโลกรัม"</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>ควรแจ้งเตือนผู้ใช้ว่า"กรุณากรอกน้ำหนักกาแฟให้ถูกต้อง"</t>
+  </si>
+  <si>
+    <t>ควรแจ้งเตือนผู้ใช้ว่า"กรุณากรอกน้ำหนักของกาแฟ"</t>
   </si>
 </sst>
 </file>
@@ -382,7 +547,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +610,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -531,12 +720,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -547,6 +733,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1115,7 +1328,7 @@
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1490,638 +1703,1093 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="88.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
+      <c r="M1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="17">
-        <v>25</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
+        <v>71</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6">
+      <c r="H3" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.6">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6">
+      <c r="C4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="22">
-        <v>25</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6">
+      <c r="C5" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="22">
-        <v>24</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6">
+      <c r="C6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="17">
-        <v>51</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6">
+      <c r="C7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="17">
-        <v>51</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="C8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="17">
-        <v>50</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="C9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="17">
-        <v>101</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="C10" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="17">
-        <v>101</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="C11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="22">
-        <v>100</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6">
+      <c r="C12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.6">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20">
-        <v>1001</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6">
+      <c r="C13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6">
       <c r="A14" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20">
-        <v>25</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6">
+      <c r="C14" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6">
       <c r="A15" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20">
-        <v>26</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6">
+      <c r="C15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6">
       <c r="A16" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20">
-        <v>49</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6">
+      <c r="C16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.6">
       <c r="A17" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20">
-        <v>50</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6">
+      <c r="C17" s="16"/>
+      <c r="D17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17">
+        <v>26</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.6">
       <c r="A18" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20">
-        <v>24</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6">
+      <c r="C18" s="16"/>
+      <c r="D18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17">
+        <v>26</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.6">
       <c r="A19" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20">
-        <v>51</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6">
+      <c r="C19" s="16"/>
+      <c r="D19" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17">
+        <v>26</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20">
-        <v>51</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6">
+      <c r="C20" s="16"/>
+      <c r="D20" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17">
+        <v>26</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.6">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20">
-        <v>52</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6">
+      <c r="C21" s="16"/>
+      <c r="D21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17">
+        <v>26</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.6">
       <c r="A22" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20">
-        <v>99</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.6">
+      <c r="C22" s="16"/>
+      <c r="D22" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17">
+        <v>26</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20">
-        <v>100</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6">
+      <c r="C23" s="16"/>
+      <c r="D23" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17">
+        <v>26</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.6">
       <c r="A24" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20">
-        <v>50</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6">
+      <c r="C24" s="16"/>
+      <c r="D24" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17">
+        <v>26</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.6">
       <c r="A25" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20">
-        <v>101</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6">
+      <c r="C25" s="16"/>
+      <c r="D25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17">
+        <v>26</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.6">
       <c r="A26" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20">
-        <v>101</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.6">
+      <c r="C26" s="16"/>
+      <c r="D26" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17">
+        <v>26</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.6">
       <c r="A27" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20">
-        <v>102</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6">
+      <c r="C27" s="16"/>
+      <c r="D27" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17">
+        <v>26</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.6">
       <c r="A28" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20">
-        <v>999</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6">
+      <c r="C28" s="16"/>
+      <c r="D28" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17">
+        <v>26</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.6">
       <c r="A29" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.6">
+      <c r="C29" s="16"/>
+      <c r="D29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17">
+        <v>26</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.6">
       <c r="A30" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20">
-        <v>100</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6">
+      <c r="C30" s="16"/>
+      <c r="D30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17">
+        <v>26</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.6">
       <c r="A31" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20">
-        <v>1001</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.6">
+      <c r="C31" s="16"/>
+      <c r="D31" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17">
+        <v>26</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6">
       <c r="A32" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17">
+        <v>26</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
